--- a/data/downloads/train.xlsx
+++ b/data/downloads/train.xlsx
@@ -7183,7 +7183,11 @@
       </c>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="n">
         <v>79427</v>
